--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/69.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/69.xlsx
@@ -479,13 +479,13 @@
         <v>-3.830669268188847</v>
       </c>
       <c r="E2" t="n">
-        <v>-4.890351478507285</v>
+        <v>-5.869868893300562</v>
       </c>
       <c r="F2" t="n">
-        <v>-6.881976427868694</v>
+        <v>-6.774300940631759</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.792837519229884</v>
+        <v>-11.40358909575558</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-3.729031949112584</v>
       </c>
       <c r="E3" t="n">
-        <v>-5.665987528936475</v>
+        <v>-6.668952620663475</v>
       </c>
       <c r="F3" t="n">
-        <v>-6.629160993773655</v>
+        <v>-6.452257169301205</v>
       </c>
       <c r="G3" t="n">
-        <v>-9.241860930473605</v>
+        <v>-12.35340579383235</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-3.774601204320368</v>
       </c>
       <c r="E4" t="n">
-        <v>-6.852280600159053</v>
+        <v>-7.736995282795982</v>
       </c>
       <c r="F4" t="n">
-        <v>-6.25998719624604</v>
+        <v>-6.438201274558824</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.29908910941649</v>
+        <v>-12.99051183468751</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-3.954316104744656</v>
       </c>
       <c r="E5" t="n">
-        <v>-7.459035686384399</v>
+        <v>-8.49973413311025</v>
       </c>
       <c r="F5" t="n">
-        <v>-5.530263809304049</v>
+        <v>-5.888344450250633</v>
       </c>
       <c r="G5" t="n">
-        <v>-11.16146591967849</v>
+        <v>-13.91910046494813</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-4.219898940694293</v>
       </c>
       <c r="E6" t="n">
-        <v>-8.298805728893779</v>
+        <v>-9.400518981318728</v>
       </c>
       <c r="F6" t="n">
-        <v>-5.181325611198595</v>
+        <v>-5.54144985701555</v>
       </c>
       <c r="G6" t="n">
-        <v>-12.31835650360344</v>
+        <v>-14.71992467875567</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-4.521964538076404</v>
       </c>
       <c r="E7" t="n">
-        <v>-8.790018915833324</v>
+        <v>-10.16754060164841</v>
       </c>
       <c r="F7" t="n">
-        <v>-5.027463676089915</v>
+        <v>-5.440188746788008</v>
       </c>
       <c r="G7" t="n">
-        <v>-13.19097578325162</v>
+        <v>-15.29957022190397</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-4.807665149096697</v>
       </c>
       <c r="E8" t="n">
-        <v>-9.575555205168017</v>
+        <v>-11.13898137709755</v>
       </c>
       <c r="F8" t="n">
-        <v>-4.632598147476663</v>
+        <v>-5.054866559578973</v>
       </c>
       <c r="G8" t="n">
-        <v>-14.624031698068</v>
+        <v>-16.46681572237305</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-5.026176365078965</v>
       </c>
       <c r="E9" t="n">
-        <v>-9.686701887280462</v>
+        <v>-11.54046173200173</v>
       </c>
       <c r="F9" t="n">
-        <v>-4.42606205238384</v>
+        <v>-4.677401006405071</v>
       </c>
       <c r="G9" t="n">
-        <v>-15.18345630881474</v>
+        <v>-16.96018007233403</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-5.13621794083842</v>
       </c>
       <c r="E10" t="n">
-        <v>-9.88202260062058</v>
+        <v>-12.12317268245559</v>
       </c>
       <c r="F10" t="n">
-        <v>-4.037444674546505</v>
+        <v>-4.475089013245263</v>
       </c>
       <c r="G10" t="n">
-        <v>-16.06327220657102</v>
+        <v>-17.68202238020656</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-5.116603859655768</v>
       </c>
       <c r="E11" t="n">
-        <v>-10.1180394071209</v>
+        <v>-12.5637944263363</v>
       </c>
       <c r="F11" t="n">
-        <v>-4.466455027118291</v>
+        <v>-4.628789611127336</v>
       </c>
       <c r="G11" t="n">
-        <v>-16.08543407469875</v>
+        <v>-18.02593956825969</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-4.963303790948888</v>
       </c>
       <c r="E12" t="n">
-        <v>-10.68458730087274</v>
+        <v>-13.34526795096459</v>
       </c>
       <c r="F12" t="n">
-        <v>-3.906429068526918</v>
+        <v>-4.12911355330116</v>
       </c>
       <c r="G12" t="n">
-        <v>-16.18482269529626</v>
+        <v>-18.07318204161469</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-4.691147890013175</v>
       </c>
       <c r="E13" t="n">
-        <v>-11.26029719349317</v>
+        <v>-14.01057867243498</v>
       </c>
       <c r="F13" t="n">
-        <v>-4.07385310868442</v>
+        <v>-4.310192589637956</v>
       </c>
       <c r="G13" t="n">
-        <v>-15.65604237959134</v>
+        <v>-17.78185101142209</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-4.338628461270224</v>
       </c>
       <c r="E14" t="n">
-        <v>-11.59642619360731</v>
+        <v>-14.572931798295</v>
       </c>
       <c r="F14" t="n">
-        <v>-4.143795240922506</v>
+        <v>-4.26406969885548</v>
       </c>
       <c r="G14" t="n">
-        <v>-15.0074520616058</v>
+        <v>-17.29671974902499</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-3.955103453371718</v>
       </c>
       <c r="E15" t="n">
-        <v>-11.99563804932525</v>
+        <v>-14.99520998841105</v>
       </c>
       <c r="F15" t="n">
-        <v>-3.842588416858743</v>
+        <v>-4.071002817681009</v>
       </c>
       <c r="G15" t="n">
-        <v>-13.41273624572802</v>
+        <v>-16.22870153192682</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-3.591817759351183</v>
       </c>
       <c r="E16" t="n">
-        <v>-12.40570350028774</v>
+        <v>-15.81789784092743</v>
       </c>
       <c r="F16" t="n">
-        <v>-3.821272346918994</v>
+        <v>-3.953495537634709</v>
       </c>
       <c r="G16" t="n">
-        <v>-12.07909339654349</v>
+        <v>-15.37389290429481</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-3.296947854005015</v>
       </c>
       <c r="E17" t="n">
-        <v>-13.16308399907587</v>
+        <v>-16.48600018531882</v>
       </c>
       <c r="F17" t="n">
-        <v>-3.372290401295859</v>
+        <v>-3.612633978873398</v>
       </c>
       <c r="G17" t="n">
-        <v>-10.844746276826</v>
+        <v>-14.33357580010458</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-3.10824667825307</v>
       </c>
       <c r="E18" t="n">
-        <v>-13.57970071924003</v>
+        <v>-17.15083178411625</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.125459111605924</v>
+        <v>-3.129810327717478</v>
       </c>
       <c r="G18" t="n">
-        <v>-9.236786141345746</v>
+        <v>-13.08281139532799</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-3.044388485665117</v>
       </c>
       <c r="E19" t="n">
-        <v>-14.76687870070552</v>
+        <v>-18.46678131744941</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.790043906494357</v>
+        <v>-3.135237125339754</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.41757690815296</v>
+        <v>-11.99049970310812</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-3.103778609827184</v>
       </c>
       <c r="E20" t="n">
-        <v>-15.84804834627569</v>
+        <v>-19.55147104796376</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.480364433530231</v>
+        <v>-2.794512458770718</v>
       </c>
       <c r="G20" t="n">
-        <v>-6.064945156297336</v>
+        <v>-10.54708887174762</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-3.275292122739748</v>
       </c>
       <c r="E21" t="n">
-        <v>-16.55106308870372</v>
+        <v>-20.27290267925947</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.111097744872145</v>
+        <v>-2.404853722470729</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.30587795014012</v>
+        <v>-9.801006867828933</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-3.533405059213013</v>
       </c>
       <c r="E22" t="n">
-        <v>-17.43579243836125</v>
+        <v>-21.01556726737818</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.148376422232371</v>
+        <v>-2.658857185234428</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.285180430506819</v>
+        <v>-8.901991840106277</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-3.844043332199161</v>
       </c>
       <c r="E23" t="n">
-        <v>-17.71091152178316</v>
+        <v>-21.3828343522277</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.929534696855524</v>
+        <v>-2.407396006041525</v>
       </c>
       <c r="G23" t="n">
-        <v>-3.638643495405386</v>
+        <v>-8.021325255155155</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-4.179198780145203</v>
       </c>
       <c r="E24" t="n">
-        <v>-18.23522817421859</v>
+        <v>-22.01800923537042</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.807001517750035</v>
+        <v>-2.24254358349602</v>
       </c>
       <c r="G24" t="n">
-        <v>-3.486864277222011</v>
+        <v>-7.591679331690669</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-4.512602147017876</v>
       </c>
       <c r="E25" t="n">
-        <v>-19.08015122996569</v>
+        <v>-22.45751628568548</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.659700629856754</v>
+        <v>-2.419872751565892</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.439421354585468</v>
+        <v>-7.33756342176903</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-4.820487097791788</v>
       </c>
       <c r="E26" t="n">
-        <v>-19.27296877178995</v>
+        <v>-22.92234839157115</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.650044841294597</v>
+        <v>-2.350179958678019</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.242814832439351</v>
+        <v>-7.230186163950977</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-5.084903604919937</v>
       </c>
       <c r="E27" t="n">
-        <v>-19.46648055258931</v>
+        <v>-22.71346557318221</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.790105110017977</v>
+        <v>-2.397872220664775</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.625237838576305</v>
+        <v>-7.389641122915408</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-5.293459475758982</v>
       </c>
       <c r="E28" t="n">
-        <v>-19.49726662883028</v>
+        <v>-22.83068929083023</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.598856939397998</v>
+        <v>-2.299295175207169</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.098239474936593</v>
+        <v>-7.797462519725985</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-5.434508394495735</v>
       </c>
       <c r="E29" t="n">
-        <v>-19.39540417075811</v>
+        <v>-22.78430728268381</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.064124166894826</v>
+        <v>-2.670678803838629</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.797983471770661</v>
+        <v>-8.288783264816603</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-5.497568477119067</v>
       </c>
       <c r="E30" t="n">
-        <v>-19.29746758520006</v>
+        <v>-22.74735127977679</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.981064829232808</v>
+        <v>-2.641173647396797</v>
       </c>
       <c r="G30" t="n">
-        <v>-5.709235683681205</v>
+        <v>-8.944951543445859</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-5.477982984723636</v>
       </c>
       <c r="E31" t="n">
-        <v>-19.44765298714482</v>
+        <v>-22.74190981513392</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.107323431570886</v>
+        <v>-2.633121453086988</v>
       </c>
       <c r="G31" t="n">
-        <v>-6.334260988568212</v>
+        <v>-9.640280767079103</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-5.371205028013424</v>
       </c>
       <c r="E32" t="n">
-        <v>-19.53665735715701</v>
+        <v>-22.53643463453122</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.268499320952472</v>
+        <v>-2.737834202162573</v>
       </c>
       <c r="G32" t="n">
-        <v>-6.969900327363292</v>
+        <v>-9.86574709676062</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-5.173786114620157</v>
       </c>
       <c r="E33" t="n">
-        <v>-19.44283731538091</v>
+        <v>-22.51453188376744</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.197598943368471</v>
+        <v>-2.575856515654813</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.81902304000908</v>
+        <v>-10.65395278384465</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-4.888083974442122</v>
       </c>
       <c r="E34" t="n">
-        <v>-18.61261550328262</v>
+        <v>-21.70861332480458</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.430599232631903</v>
+        <v>-2.879556733220703</v>
       </c>
       <c r="G34" t="n">
-        <v>-8.242767932185199</v>
+        <v>-10.76306563910046</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-4.521137539463342</v>
       </c>
       <c r="E35" t="n">
-        <v>-18.19106088618288</v>
+        <v>-21.32805791929079</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.146963499247833</v>
+        <v>-2.668112075233498</v>
       </c>
       <c r="G35" t="n">
-        <v>-8.708010714647694</v>
+        <v>-11.1491700674082</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-4.083458091445773</v>
       </c>
       <c r="E36" t="n">
-        <v>-17.87485947805829</v>
+        <v>-21.07153172898376</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.516352413077592</v>
+        <v>-2.859790478457766</v>
       </c>
       <c r="G36" t="n">
-        <v>-8.613447543827824</v>
+        <v>-10.99605615035015</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-3.589960818662348</v>
       </c>
       <c r="E37" t="n">
-        <v>-17.38243870642261</v>
+        <v>-20.54215495444107</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.179079385356597</v>
+        <v>-2.768121599703111</v>
       </c>
       <c r="G37" t="n">
-        <v>-8.966257835371875</v>
+        <v>-11.19381647811687</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-3.060960179415162</v>
       </c>
       <c r="E38" t="n">
-        <v>-16.83681576206117</v>
+        <v>-20.17731281699755</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.339429032577673</v>
+        <v>-2.823523825518991</v>
       </c>
       <c r="G38" t="n">
-        <v>-8.793167436255617</v>
+        <v>-11.03171656643743</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-2.518658199441968</v>
       </c>
       <c r="E39" t="n">
-        <v>-16.44736725305646</v>
+        <v>-19.80244821547684</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.302311692444055</v>
+        <v>-2.775054211440396</v>
       </c>
       <c r="G39" t="n">
-        <v>-8.778676419902082</v>
+        <v>-11.00272964472349</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-1.986102593017283</v>
       </c>
       <c r="E40" t="n">
-        <v>-15.91410371805458</v>
+        <v>-19.27141895661314</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.171819210159228</v>
+        <v>-2.872629010490285</v>
       </c>
       <c r="G40" t="n">
-        <v>-8.640591309952937</v>
+        <v>-10.96340247348603</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-1.49208292876471</v>
       </c>
       <c r="E41" t="n">
-        <v>-15.26215954135834</v>
+        <v>-18.59653555969733</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.883974041862744</v>
+        <v>-2.677156737937291</v>
       </c>
       <c r="G41" t="n">
-        <v>-8.94750360503039</v>
+        <v>-11.12958470589934</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-1.0626161081502</v>
       </c>
       <c r="E42" t="n">
-        <v>-14.83724128753416</v>
+        <v>-18.53177088573131</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.783035606088418</v>
+        <v>-2.46708589087969</v>
       </c>
       <c r="G42" t="n">
-        <v>-8.467129346314794</v>
+        <v>-10.95585384688351</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-0.7142425784606784</v>
       </c>
       <c r="E43" t="n">
-        <v>-14.29555399370058</v>
+        <v>-18.04670806943034</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.139194867336305</v>
+        <v>-2.716293237906946</v>
       </c>
       <c r="G43" t="n">
-        <v>-8.447069751139841</v>
+        <v>-11.05712473512479</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-0.4547815630633497</v>
       </c>
       <c r="E44" t="n">
-        <v>-14.00876485088735</v>
+        <v>-17.80452133626398</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.127422138800774</v>
+        <v>-2.529542953604528</v>
       </c>
       <c r="G44" t="n">
-        <v>-7.957298821226036</v>
+        <v>-10.90963806497057</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-0.2822100638902139</v>
       </c>
       <c r="E45" t="n">
-        <v>-13.57373613086239</v>
+        <v>-17.3861201285934</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.014109626646286</v>
+        <v>-2.63078939681147</v>
       </c>
       <c r="G45" t="n">
-        <v>-7.491748031330927</v>
+        <v>-10.5025989092587</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-0.1855561768839493</v>
       </c>
       <c r="E46" t="n">
-        <v>-13.09101025984381</v>
+        <v>-17.10398532031747</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.183992837257847</v>
+        <v>-2.703166254469278</v>
       </c>
       <c r="G46" t="n">
-        <v>-7.118922145673727</v>
+        <v>-10.27159822380383</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.1475328937307488</v>
       </c>
       <c r="E47" t="n">
-        <v>-12.71044018730942</v>
+        <v>-16.58803375863134</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.367917275591187</v>
+        <v>-2.769539411694516</v>
       </c>
       <c r="G47" t="n">
-        <v>-7.070374307485261</v>
+        <v>-10.25080527759884</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.1492520253883297</v>
       </c>
       <c r="E48" t="n">
-        <v>-11.69302808029068</v>
+        <v>-15.84181486252037</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.509786476855325</v>
+        <v>-2.788195861898664</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.210427333636123</v>
+        <v>-9.775246690647158</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.1702018910748025</v>
       </c>
       <c r="E49" t="n">
-        <v>-11.45256716654834</v>
+        <v>-15.69070543827777</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.74658552445435</v>
+        <v>-2.853835668093863</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.800885006408392</v>
+        <v>-9.37974070213434</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.191206460770319</v>
       </c>
       <c r="E50" t="n">
-        <v>-11.09210557925757</v>
+        <v>-15.08460058996572</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.911887735631612</v>
+        <v>-3.010924347734708</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.968001039133279</v>
+        <v>-9.480121791125837</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.1988194110667512</v>
       </c>
       <c r="E51" t="n">
-        <v>-10.63877730652974</v>
+        <v>-14.55904701879296</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.861159400380502</v>
+        <v>-2.97879868361221</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.623858956764269</v>
+        <v>-9.136801061910468</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.1844016921616779</v>
       </c>
       <c r="E52" t="n">
-        <v>-10.15420827992234</v>
+        <v>-14.05192500350848</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.833482732506897</v>
+        <v>-3.036870307177425</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.042345812992804</v>
+        <v>-8.572272327994666</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.1456567293100352</v>
       </c>
       <c r="E53" t="n">
-        <v>-9.86907651043699</v>
+        <v>-13.83277527069901</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.880818096992367</v>
+        <v>-3.001239225131349</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.958548235293882</v>
+        <v>-8.493006859661374</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.08855452085301277</v>
       </c>
       <c r="E54" t="n">
-        <v>-9.580796220529349</v>
+        <v>-13.35035251810618</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.844942564602945</v>
+        <v>-3.119201182816273</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.770903262734819</v>
+        <v>-8.377064061812487</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.02586672301895574</v>
       </c>
       <c r="E55" t="n">
-        <v>-9.063578406064684</v>
+        <v>-12.90672403500232</v>
       </c>
       <c r="F55" t="n">
-        <v>-3.206416176315169</v>
+        <v>-3.169685067724037</v>
       </c>
       <c r="G55" t="n">
-        <v>-5.060547585558329</v>
+        <v>-8.593730179133557</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.02624181415690508</v>
       </c>
       <c r="E56" t="n">
-        <v>-9.114658749810211</v>
+        <v>-12.67854919551653</v>
       </c>
       <c r="F56" t="n">
-        <v>-3.261764623055513</v>
+        <v>-3.277668562393588</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.105291776404334</v>
+        <v>-8.443119433591374</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.05107946920263574</v>
       </c>
       <c r="E57" t="n">
-        <v>-8.860122385298018</v>
+        <v>-12.27953290007327</v>
       </c>
       <c r="F57" t="n">
-        <v>-3.140307025460745</v>
+        <v>-3.31874110908254</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.163441624079421</v>
+        <v>-8.588870506307842</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.03134737558959567</v>
       </c>
       <c r="E58" t="n">
-        <v>-8.411233330805356</v>
+        <v>-12.07400394039503</v>
       </c>
       <c r="F58" t="n">
-        <v>-3.19297629643802</v>
+        <v>-3.253790652855575</v>
       </c>
       <c r="G58" t="n">
-        <v>-5.788139365506344</v>
+        <v>-8.909080900063303</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.04590458316451432</v>
       </c>
       <c r="E59" t="n">
-        <v>-8.125128648953492</v>
+        <v>-11.87274797271848</v>
       </c>
       <c r="F59" t="n">
-        <v>-3.434512791691086</v>
+        <v>-3.451418977436878</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.209439754249007</v>
+        <v>-9.270285616397848</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.1866506526780838</v>
       </c>
       <c r="E60" t="n">
-        <v>-7.93222310500563</v>
+        <v>-11.69514502026406</v>
       </c>
       <c r="F60" t="n">
-        <v>-3.263705558781678</v>
+        <v>-3.460052963563849</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.876231844800069</v>
+        <v>-9.765586013078133</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.3900047365348295</v>
       </c>
       <c r="E61" t="n">
-        <v>-7.818866591789339</v>
+        <v>-11.32274936721114</v>
       </c>
       <c r="F61" t="n">
-        <v>-3.384332025209071</v>
+        <v>-3.599717222731009</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.074265956951326</v>
+        <v>-10.07799844088087</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.6464342691383602</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.476685001173962</v>
+        <v>-11.07554651299933</v>
       </c>
       <c r="F62" t="n">
-        <v>-3.465953994852216</v>
+        <v>-3.588814737417788</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.578395900033261</v>
+        <v>-10.52093268500963</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.9398121705716439</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.239206381620435</v>
+        <v>-10.85351226613838</v>
       </c>
       <c r="F63" t="n">
-        <v>-3.403624046305917</v>
+        <v>-3.633974493847482</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.470011506800623</v>
+        <v>-10.860395987807</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-1.251066924731375</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.449785685392196</v>
+        <v>-10.99788463891838</v>
       </c>
       <c r="F64" t="n">
-        <v>-3.533974747391603</v>
+        <v>-3.770324006358873</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.609714878022718</v>
+        <v>-11.18799367093837</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-1.560836568075853</v>
       </c>
       <c r="E65" t="n">
-        <v>-7.285974621309344</v>
+        <v>-11.08319291973918</v>
       </c>
       <c r="F65" t="n">
-        <v>-3.387710328954109</v>
+        <v>-3.716691601028816</v>
       </c>
       <c r="G65" t="n">
-        <v>-8.0767177029573</v>
+        <v>-11.57803374977398</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-1.850113514161656</v>
       </c>
       <c r="E66" t="n">
-        <v>-7.649457614843869</v>
+        <v>-11.14938029470347</v>
       </c>
       <c r="F66" t="n">
-        <v>-3.537949509974405</v>
+        <v>-3.830502791883729</v>
       </c>
       <c r="G66" t="n">
-        <v>-8.004179508072884</v>
+        <v>-11.80009733067612</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-2.102467086057536</v>
       </c>
       <c r="E67" t="n">
-        <v>-7.46568962473027</v>
+        <v>-11.05023612444931</v>
       </c>
       <c r="F67" t="n">
-        <v>-3.915996854965471</v>
+        <v>-4.000576673763099</v>
       </c>
       <c r="G67" t="n">
-        <v>-8.038632339464034</v>
+        <v>-11.94315456060892</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-2.308207327526135</v>
       </c>
       <c r="E68" t="n">
-        <v>-7.638765356825926</v>
+        <v>-11.05700250995312</v>
       </c>
       <c r="F68" t="n">
-        <v>-3.646656577660259</v>
+        <v>-3.842373300556599</v>
       </c>
       <c r="G68" t="n">
-        <v>-8.009850756038505</v>
+        <v>-12.1881915847787</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-2.461767941924445</v>
       </c>
       <c r="E69" t="n">
-        <v>-7.902615279419592</v>
+        <v>-11.35567193945295</v>
       </c>
       <c r="F69" t="n">
-        <v>-3.611573064383278</v>
+        <v>-3.705691335578257</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.897648048442806</v>
+        <v>-12.46873746582288</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-2.562194197210189</v>
       </c>
       <c r="E70" t="n">
-        <v>-8.179611741478393</v>
+        <v>-11.42505183590134</v>
       </c>
       <c r="F70" t="n">
-        <v>-3.436101718922833</v>
+        <v>-3.518549930726487</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.887298020905548</v>
+        <v>-12.82302423744074</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-2.614124663501751</v>
       </c>
       <c r="E71" t="n">
-        <v>-8.539980437638693</v>
+        <v>-11.76322444088585</v>
       </c>
       <c r="F71" t="n">
-        <v>-3.503306007315446</v>
+        <v>-3.543816318214703</v>
       </c>
       <c r="G71" t="n">
-        <v>-8.316645714951152</v>
+        <v>-13.48255126378756</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-2.626019420822681</v>
       </c>
       <c r="E72" t="n">
-        <v>-9.014781228526004</v>
+        <v>-12.1271767790796</v>
       </c>
       <c r="F72" t="n">
-        <v>-3.566858207578473</v>
+        <v>-3.566701759358732</v>
       </c>
       <c r="G72" t="n">
-        <v>-8.191487139158129</v>
+        <v>-13.69414748098764</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-2.607477152124275</v>
       </c>
       <c r="E73" t="n">
-        <v>-9.422069723588089</v>
+        <v>-12.59492762206482</v>
       </c>
       <c r="F73" t="n">
-        <v>-3.741200192452661</v>
+        <v>-3.703408169371408</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.972396074431069</v>
+        <v>-13.61923811777277</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-2.568653860361235</v>
       </c>
       <c r="E74" t="n">
-        <v>-10.10154389795193</v>
+        <v>-13.11624731329083</v>
       </c>
       <c r="F74" t="n">
-        <v>-3.748695039979641</v>
+        <v>-3.749633729298089</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.720607331778083</v>
+        <v>-13.78443277079896</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-2.521400993541802</v>
       </c>
       <c r="E75" t="n">
-        <v>-10.49160842182187</v>
+        <v>-13.61774697067836</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.734653812257861</v>
+        <v>-3.635494974983092</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.547262704304746</v>
+        <v>-13.89749594360323</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-2.475753544064576</v>
       </c>
       <c r="E76" t="n">
-        <v>-10.71021058586224</v>
+        <v>-13.8436826450191</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.853466457137628</v>
+        <v>-3.653408296143469</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.42407439827909</v>
+        <v>-13.87584253218967</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-2.438492352130119</v>
       </c>
       <c r="E77" t="n">
-        <v>-11.37937873375062</v>
+        <v>-14.58028975362971</v>
       </c>
       <c r="F77" t="n">
-        <v>-4.05239525754553</v>
+        <v>-3.855710511289542</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.960224982773668</v>
+        <v>-13.87290423906265</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-2.418211994557586</v>
       </c>
       <c r="E78" t="n">
-        <v>-11.99943680766084</v>
+        <v>-15.11061988451144</v>
       </c>
       <c r="F78" t="n">
-        <v>-4.145799733737941</v>
+        <v>-3.813474380966264</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.876290512882472</v>
+        <v>-13.84988190572635</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-2.420271004123631</v>
       </c>
       <c r="E79" t="n">
-        <v>-12.76548551562401</v>
+        <v>-16.04958298734366</v>
       </c>
       <c r="F79" t="n">
-        <v>-4.385444183333511</v>
+        <v>-3.885797459548537</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.635604704824249</v>
+        <v>-13.77959265400071</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-2.44608295847822</v>
       </c>
       <c r="E80" t="n">
-        <v>-13.4551483802985</v>
+        <v>-16.74584112228162</v>
       </c>
       <c r="F80" t="n">
-        <v>-4.570585984376713</v>
+        <v>-4.109845977238648</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.348140879063384</v>
+        <v>-13.63512250108338</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-2.496799910227022</v>
       </c>
       <c r="E81" t="n">
-        <v>-14.12170579851995</v>
+        <v>-17.25041596498844</v>
       </c>
       <c r="F81" t="n">
-        <v>-4.495691288182443</v>
+        <v>-3.970152384030288</v>
       </c>
       <c r="G81" t="n">
-        <v>-5.86510211160532</v>
+        <v>-13.40034261332039</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-2.57298917004176</v>
       </c>
       <c r="E82" t="n">
-        <v>-14.79075661024353</v>
+        <v>-17.9717498161468</v>
       </c>
       <c r="F82" t="n">
-        <v>-4.720414488820189</v>
+        <v>-4.128292200147518</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.030242985555973</v>
+        <v>-13.52168776375722</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-2.672989173736259</v>
       </c>
       <c r="E83" t="n">
-        <v>-15.5711838874023</v>
+        <v>-18.85287107873655</v>
       </c>
       <c r="F83" t="n">
-        <v>-5.080162281108391</v>
+        <v>-4.328707258642963</v>
       </c>
       <c r="G83" t="n">
-        <v>-5.843077135669868</v>
+        <v>-13.38233151202267</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-2.793125963440027</v>
       </c>
       <c r="E84" t="n">
-        <v>-16.45020776604614</v>
+        <v>-19.65936165150284</v>
       </c>
       <c r="F84" t="n">
-        <v>-5.204421279637901</v>
+        <v>-4.45704368889948</v>
       </c>
       <c r="G84" t="n">
-        <v>-5.648915116957208</v>
+        <v>-13.15296864386822</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-2.932446569589615</v>
       </c>
       <c r="E85" t="n">
-        <v>-17.67863429844779</v>
+        <v>-20.94541001883795</v>
       </c>
       <c r="F85" t="n">
-        <v>-5.089549174292868</v>
+        <v>-4.256100617662409</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.446676458900404</v>
+        <v>-13.10385856989006</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-3.086236213879019</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.02570236048886</v>
+        <v>-22.17330853849798</v>
       </c>
       <c r="F86" t="n">
-        <v>-5.416843738998489</v>
+        <v>-4.534627338870553</v>
       </c>
       <c r="G86" t="n">
-        <v>-4.992903286547693</v>
+        <v>-12.75309677222325</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-3.246003541348575</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.06310561658641</v>
+        <v>-23.16227151455813</v>
       </c>
       <c r="F87" t="n">
-        <v>-5.472329077931107</v>
+        <v>-4.476756164586881</v>
       </c>
       <c r="G87" t="n">
-        <v>-5.162507823767839</v>
+        <v>-12.977819972861</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-3.406534658308435</v>
       </c>
       <c r="E88" t="n">
-        <v>-20.90510015722024</v>
+        <v>-24.20149348121017</v>
       </c>
       <c r="F88" t="n">
-        <v>-5.33909386279394</v>
+        <v>-4.267643562875195</v>
       </c>
       <c r="G88" t="n">
-        <v>-5.079394707030286</v>
+        <v>-12.7869286997423</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-3.56132303232027</v>
       </c>
       <c r="E89" t="n">
-        <v>-22.0373257015016</v>
+        <v>-25.55490258515764</v>
       </c>
       <c r="F89" t="n">
-        <v>-5.929392551905251</v>
+        <v>-4.589633555130214</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.560827526670351</v>
+        <v>-12.49861418678659</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-3.703269482780566</v>
       </c>
       <c r="E90" t="n">
-        <v>-23.59056807212735</v>
+        <v>-27.21182612441005</v>
       </c>
       <c r="F90" t="n">
-        <v>-6.192421121345276</v>
+        <v>-4.563736485756166</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.721485181324043</v>
+        <v>-12.50835797747236</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-3.829019692054872</v>
       </c>
       <c r="E91" t="n">
-        <v>-25.05405805469027</v>
+        <v>-28.58192140879429</v>
       </c>
       <c r="F91" t="n">
-        <v>-6.03378262652762</v>
+        <v>-4.412920401925573</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.415985809231128</v>
+        <v>-12.15713172415319</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-3.940955687419331</v>
       </c>
       <c r="E92" t="n">
-        <v>-26.71507858169716</v>
+        <v>-30.31690038718044</v>
       </c>
       <c r="F92" t="n">
-        <v>-6.299539261799382</v>
+        <v>-4.466875481708846</v>
       </c>
       <c r="G92" t="n">
-        <v>-4.733570806299056</v>
+        <v>-12.17583217541913</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-4.042260861561744</v>
       </c>
       <c r="E93" t="n">
-        <v>-28.34531058795964</v>
+        <v>-32.13201263261875</v>
       </c>
       <c r="F93" t="n">
-        <v>-6.1331614691114</v>
+        <v>-4.345427662127812</v>
       </c>
       <c r="G93" t="n">
-        <v>-4.755233995726357</v>
+        <v>-12.32579757205488</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-4.136287670698745</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.93454093813275</v>
+        <v>-33.70933580656749</v>
       </c>
       <c r="F94" t="n">
-        <v>-6.615109988038141</v>
+        <v>-4.419139218660288</v>
       </c>
       <c r="G94" t="n">
-        <v>-4.843255675358294</v>
+        <v>-12.4088422426963</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-4.232814699264496</v>
       </c>
       <c r="E95" t="n">
-        <v>-31.96935781865992</v>
+        <v>-35.90167648834665</v>
       </c>
       <c r="F95" t="n">
-        <v>-6.726432674397794</v>
+        <v>-4.259552256510451</v>
       </c>
       <c r="G95" t="n">
-        <v>-4.68984352888137</v>
+        <v>-12.23112684308394</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-4.337157764872472</v>
       </c>
       <c r="E96" t="n">
-        <v>-33.77866436844377</v>
+        <v>-37.67403192423036</v>
       </c>
       <c r="F96" t="n">
-        <v>-6.907589934844461</v>
+        <v>-4.317838996377811</v>
       </c>
       <c r="G96" t="n">
-        <v>-4.910015064126017</v>
+        <v>-12.25549365330865</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-4.450550349712181</v>
       </c>
       <c r="E97" t="n">
-        <v>-35.68137050541316</v>
+        <v>-39.74018978327788</v>
       </c>
       <c r="F97" t="n">
-        <v>-7.26718616791979</v>
+        <v>-4.412108826785665</v>
       </c>
       <c r="G97" t="n">
-        <v>-4.704270988145636</v>
+        <v>-12.3838398615789</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-4.573354892375709</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.48400600532711</v>
+        <v>-41.85202807798643</v>
       </c>
       <c r="F98" t="n">
-        <v>-7.194633306014771</v>
+        <v>-4.276184657871696</v>
       </c>
       <c r="G98" t="n">
-        <v>-5.018052337871103</v>
+        <v>-12.42847649427383</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-4.702273343082873</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.38648724798063</v>
+        <v>-43.93995668461233</v>
       </c>
       <c r="F99" t="n">
-        <v>-7.060038946968604</v>
+        <v>-4.189424342011423</v>
       </c>
       <c r="G99" t="n">
-        <v>-5.459896333468542</v>
+        <v>-12.82188998784761</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-4.823265167094435</v>
       </c>
       <c r="E100" t="n">
-        <v>-41.85963292816792</v>
+        <v>-46.37289028331925</v>
       </c>
       <c r="F100" t="n">
-        <v>-6.799723776339717</v>
+        <v>-3.855930516598554</v>
       </c>
       <c r="G100" t="n">
-        <v>-5.955397179430372</v>
+        <v>-13.23613553968131</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-4.921410864612863</v>
       </c>
       <c r="E101" t="n">
-        <v>-43.79450628581818</v>
+        <v>-48.47084624302919</v>
       </c>
       <c r="F101" t="n">
-        <v>-6.604099944573849</v>
+        <v>-3.459461393732953</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.6156184447523</v>
+        <v>-13.39577628090669</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-4.973390735520618</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.21472846667112</v>
+        <v>-50.8142474589823</v>
       </c>
       <c r="F102" t="n">
-        <v>-6.94811491276432</v>
+        <v>-3.557129083913313</v>
       </c>
       <c r="G102" t="n">
-        <v>-7.167851326397812</v>
+        <v>-14.15415902610254</v>
       </c>
     </row>
   </sheetData>
